--- a/data/income_statement/2digits/size/28_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/28_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>28-Manufacture of machinery and equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>28-Manufacture of machinery and equipment n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>7706081.43355</v>
+        <v>7217846.50233</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>10682078.82834</v>
+        <v>10163914.40937</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>17558616.46011</v>
+        <v>17047770.20204</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>18958395.04693</v>
+        <v>18163163.667</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>19997744.57628</v>
+        <v>19003770.75497</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>24933756.56403</v>
+        <v>23884679.08896</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>25480998.98733</v>
+        <v>27971249.24037</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>34070535.3945</v>
+        <v>32909342.49564</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>47598952.24444</v>
+        <v>45520454.86725</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>48138294.72319999</v>
+        <v>46582170.35984001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>52778010.62340999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>50784793.98632</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>72607939.82600001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4218626.73975</v>
+        <v>3891577.981389999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6506761.884740001</v>
+        <v>6127751.69845</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>10739094.69021</v>
+        <v>10365046.09199</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11574744.30863</v>
+        <v>10968825.3743</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11821521.87243</v>
+        <v>11138351.61417</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14550950.8764</v>
+        <v>13825798.02309</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>15197400.6118</v>
+        <v>16854085.49261</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21247081.62687</v>
+        <v>20377551.14698</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>29622335.36237</v>
+        <v>28139445.92483</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>26753033.05365</v>
+        <v>25593433.95872</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>26334786.86283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25072676.68472</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>41222351.7</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3447152.15283</v>
+        <v>3292783.19972</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4115599.39143</v>
+        <v>3983426.239150001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6681099.363770001</v>
+        <v>6564355.82796</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7239317.56304</v>
+        <v>7072063.19384</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8030422.55011</v>
+        <v>7730521.17478</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10208548.46082</v>
+        <v>9900364.133090001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10074089.34766</v>
+        <v>10921837.3042</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>12547436.99533</v>
+        <v>12281315.40953</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17582774.6115</v>
+        <v>17027443.30876</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20862134.908</v>
+        <v>20480965.33931</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>25835505.93459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25135496.15024</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>30675296.703</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>40302.54097</v>
+        <v>33485.32122</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>59717.55217</v>
+        <v>52736.47177</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>138422.40613</v>
+        <v>118368.28209</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>144333.17526</v>
+        <v>122275.09886</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>145800.15374</v>
+        <v>134897.96602</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>174257.22681</v>
+        <v>158516.93278</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>209509.02787</v>
+        <v>195326.44356</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>276016.7723</v>
+        <v>250475.93913</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>393842.27057</v>
+        <v>353565.63366</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>523126.7615499999</v>
+        <v>507771.06181</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>607717.82599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>576621.15136</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>710291.423</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>266692.14573</v>
+        <v>250452.93037</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>368963.75822</v>
+        <v>360154.30665</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>585259.6606599999</v>
+        <v>567333.44389</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>595349.5341500001</v>
+        <v>577744.20792</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>538111.16203</v>
+        <v>518981.87697</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>923801.2604299999</v>
+        <v>902278.3912899999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>590749.4962199999</v>
+        <v>859314.4701099999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1388968.21926</v>
+        <v>1387756.51134</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1681195.30877</v>
+        <v>1593849.88972</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1743991.60836</v>
+        <v>1640565.17052</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1619360.7192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1575455.69567</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2773520.83</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>75026.05061999999</v>
+        <v>65756.33213</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>75687.81860000001</v>
+        <v>70836.89597999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>126133.95512</v>
+        <v>117767.29306</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>138057.09653</v>
+        <v>131543.87426</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>96478.67275999999</v>
+        <v>99980.83997</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>408828.4017799999</v>
+        <v>400173.56771</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>204754.51107</v>
+        <v>188615.47262</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>481127.93943</v>
+        <v>448266.95273</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>473720.78038</v>
+        <v>413484.69997</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>533161.5911899999</v>
+        <v>470892.3149</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>454480.1560900001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>423974.6117</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>458162.855</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>131280.31558</v>
+        <v>125622.42552</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>201671.43088</v>
+        <v>198014.21526</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>288670.94602</v>
+        <v>279636.14601</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>294637.81517</v>
+        <v>285274.60761</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>256479.94763</v>
+        <v>234846.72845</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>282078.54582</v>
+        <v>269963.15572</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>329585.48383</v>
+        <v>375765.46039</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>526297.6532600001</v>
+        <v>560703.0165199999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>728772.89003</v>
+        <v>707537.7136200001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>779340.7629900001</v>
+        <v>745434.47022</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>808983.4616199998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>798389.5684300001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1624077.852</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>60385.77953</v>
+        <v>59074.17272</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>91604.50873999999</v>
+        <v>91303.19541</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>170454.75952</v>
+        <v>169930.00482</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>162654.62245</v>
+        <v>160925.72605</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>185152.54164</v>
+        <v>184154.30855</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>232894.31283</v>
+        <v>232141.66786</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>56409.50132000001</v>
+        <v>294933.5371</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>381542.6265699999</v>
+        <v>378786.5420900001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>478701.63836</v>
+        <v>472827.47613</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>431489.25418</v>
+        <v>424238.3854</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>355897.10149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>353091.5155399999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>691280.123</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7439389.287819999</v>
+        <v>6967393.571959999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>10313115.07012</v>
+        <v>9803760.10272</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>16973356.79945</v>
+        <v>16480436.75815</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>18363045.51278</v>
+        <v>17585419.45908</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>19459633.41425</v>
+        <v>18484788.878</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>24009955.3036</v>
+        <v>22982400.69767</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>24890249.49111</v>
+        <v>27111934.77026</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>32681567.17524</v>
+        <v>31521585.9843</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>45917756.93567</v>
+        <v>43926604.97753</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>46394303.11484</v>
+        <v>44941605.18931999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>51158649.90421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>49209338.29065</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>69834418.99600001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5990811.75472</v>
+        <v>5638917.67975</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8386139.023200001</v>
+        <v>7992012.85805</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>13519077.90995</v>
+        <v>13164290.99993</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>15067955.8093</v>
+        <v>14458498.19365</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>15596953.24608</v>
+        <v>14905131.23207</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>19459372.56158</v>
+        <v>18706024.63997</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>20073301.25976</v>
+        <v>21829712.31054</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>25874146.8356</v>
+        <v>25063463.105</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>36322525.71561</v>
+        <v>34785273.19825</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>36092763.83316001</v>
+        <v>35088161.62199</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>40697826.36292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39314949.41441</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>54702554.843</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4919611.160049999</v>
+        <v>4630223.59921</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>6837708.07274</v>
+        <v>6491491.91978</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>11274558.98628</v>
+        <v>10990657.22869</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>12656240.04321</v>
+        <v>12140795.51085</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>12829884.82533</v>
+        <v>12276357.36355</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>16271617.83998</v>
+        <v>15648049.72482</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16554850.08557</v>
+        <v>18181636.99537</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>21332706.35258</v>
+        <v>20723928.78309</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>30056485.06707</v>
+        <v>28785370.70312</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>29694246.33504</v>
+        <v>28907978.336</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>35004216.70133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>33795951.572</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>45260285.768</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>756839.16212</v>
+        <v>714598.16017</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1108950.67473</v>
+        <v>1068282.83293</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1721607.7148</v>
+        <v>1679447.2924</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1878583.48167</v>
+        <v>1810472.77412</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2026867.60344</v>
+        <v>1930697.89382</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2474521.68974</v>
+        <v>2388764.23086</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2712297.501309999</v>
+        <v>2936192.08172</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3658992.75185</v>
+        <v>3494626.33505</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4962299.571409999</v>
+        <v>4799527.18688</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4631337.112930001</v>
+        <v>4469503.20377</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4447167.12131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4322364.50337</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8039982.37</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>189425.67988</v>
+        <v>171469.14483</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>218823.59165</v>
+        <v>212064.548</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>247840.00476</v>
+        <v>221639.33559</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>287187.4485</v>
+        <v>262559.38806</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>470710.36376</v>
+        <v>432297.63699</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>561168.18536</v>
+        <v>519933.36856</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>565008.64518</v>
+        <v>480255.3071700001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>588739.91929</v>
+        <v>567787.52211</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>897706.63174</v>
+        <v>808469.5162900001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1379789.86249</v>
+        <v>1330239.50583</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>876924.67671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>838032.87401</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>839778.5159999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>124935.75267</v>
+        <v>122626.77554</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>220656.68408</v>
+        <v>220173.55734</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>275071.20411</v>
+        <v>272547.14325</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>245944.83592</v>
+        <v>244670.52062</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>269490.45355</v>
+        <v>265778.33771</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>152064.8465</v>
+        <v>149277.31573</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>241145.0277</v>
+        <v>231627.92628</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>293707.81188</v>
+        <v>277120.46475</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>406034.4453900001</v>
+        <v>391905.7919600001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>387390.5227</v>
+        <v>380440.57639</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>369517.86357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>358600.46503</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>562508.189</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1448577.5331</v>
+        <v>1328475.89221</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1926976.04692</v>
+        <v>1811747.24467</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3454278.8895</v>
+        <v>3316145.758219999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3295089.70348</v>
+        <v>3126921.26543</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3862680.16817</v>
+        <v>3579657.64593</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4550582.742020001</v>
+        <v>4276376.0577</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4816948.23135</v>
+        <v>5282222.45972</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6807420.33964</v>
+        <v>6458122.8793</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>9595231.220060002</v>
+        <v>9141331.779279999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>10301539.28168</v>
+        <v>9853443.567330001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10460823.54129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9894388.876240002</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>15131864.153</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>749828.0017</v>
+        <v>665419.4341</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>934576.1976599998</v>
+        <v>855352.9042699999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1396291.02982</v>
+        <v>1320663.85897</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1684022.41519</v>
+        <v>1557996.08237</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1707209.52722</v>
+        <v>1585699.69145</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2174748.03125</v>
+        <v>2044581.2247</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2338085.6561</v>
+        <v>2494439.4021</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3308686.16788</v>
+        <v>3111170.53084</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4162914.01482</v>
+        <v>3908920.09862</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4076820.559429999</v>
+        <v>3884339.2351</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4728214.211879999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4459066.697559999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5329129.628</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>35333.99914</v>
+        <v>32793.07422</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>42438.00236</v>
+        <v>40103.89408</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>61092.21073999999</v>
+        <v>59027.06545000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>79174.28398000001</v>
+        <v>76254.68412999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>95819.66344999999</v>
+        <v>92913.17617999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>119218.98958</v>
+        <v>114005.53494</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>124838.66194</v>
+        <v>140621.28806</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>188892.21534</v>
+        <v>185465.55039</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>214281.71746</v>
+        <v>209481.34819</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>263052.80872</v>
+        <v>252827.53242</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>338916.3895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>304624.61741</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>354383.739</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>378669.1061200001</v>
+        <v>342863.4177999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>499336.80408</v>
+        <v>473544.12995</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>741894.0722700001</v>
+        <v>715075.66181</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>856007.0931300001</v>
+        <v>818063.48444</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>883030.76298</v>
+        <v>859051.91902</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1158783.30671</v>
+        <v>1113798.89461</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1207564.93163</v>
+        <v>1338645.1425</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1717989.84901</v>
+        <v>1656567.61192</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2188523.85913</v>
+        <v>2095377.91049</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2174068.41529</v>
+        <v>2093047.99349</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2417132.87424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2328363.8764</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2791621.746</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>335824.89644</v>
+        <v>289762.94208</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>392801.3912199999</v>
+        <v>341704.88024</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>593304.74681</v>
+        <v>546561.13171</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>748841.03808</v>
+        <v>663677.9138</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>728359.1007900001</v>
+        <v>633734.5962499999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>896745.7349599999</v>
+        <v>816776.79515</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1005682.06253</v>
+        <v>1015172.97154</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1401804.10353</v>
+        <v>1269137.36853</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1760108.43823</v>
+        <v>1604060.83994</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1639699.33542</v>
+        <v>1538463.70919</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1972164.94814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1826078.20375</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2183124.143</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>698749.5314</v>
+        <v>663056.45811</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>992399.84926</v>
+        <v>956394.3404</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2057987.85968</v>
+        <v>1995481.89925</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1611067.28829</v>
+        <v>1568925.18306</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2155470.64095</v>
+        <v>1993957.95448</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2375834.710769999</v>
+        <v>2231794.833</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2478862.57525</v>
+        <v>2787783.05762</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3498734.17176</v>
+        <v>3346952.34846</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5432317.20524</v>
+        <v>5232411.680660001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6224718.72225</v>
+        <v>5969104.33223</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5732609.32941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5435322.17868</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9802734.525</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>657551.05898</v>
+        <v>599376.0040799999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>795938.1404800001</v>
+        <v>738343.77624</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1895773.82762</v>
+        <v>1836699.42344</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1156682.28157</v>
+        <v>1029053.73549</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1950141.09955</v>
+        <v>1816955.63964</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1916551.5841</v>
+        <v>1775924.33622</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2632821.75875</v>
+        <v>2763880.59994</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2903749.39545</v>
+        <v>2626236.26944</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4329060.89304</v>
+        <v>4068043.48227</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7899959.306860001</v>
+        <v>7192162.890129999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7102069.92439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6577624.576479999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>13197841.559</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>16031.12648</v>
+        <v>12644.00485</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>22593.68444</v>
+        <v>20656.06662</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>68947.14557000001</v>
+        <v>68829.34311</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>65377.77303</v>
+        <v>65366.39803</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>78959.50319</v>
+        <v>78761.40529000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>76886.01043000001</v>
+        <v>72550.66748</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>91274.56066</v>
+        <v>91387.45366</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>130595.36768</v>
+        <v>128322.51662</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>168859.54687</v>
+        <v>156340.5808</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>324196.27593</v>
+        <v>181432.92756</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>326559.60435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>139453.71479</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>282275.227</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>24830.14843</v>
@@ -1814,271 +1830,306 @@
         <v>8808.186</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>11967.5462</v>
+        <v>11962.27277</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>62452.65356999999</v>
+        <v>53624.03086</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>27076.99784</v>
+        <v>19213.22204</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>25315.39567</v>
+        <v>13868.24803</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>134017.3582</v>
+        <v>9350.4025</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>145134.71737</v>
+        <v>36731.3969</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>53762.94420000001</v>
+        <v>21265.47296</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>61014.77449</v>
+        <v>57140.77449</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>103138.53298</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>52980.259</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>60061.47772000001</v>
+        <v>54882.40853999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>60768.79042</v>
+        <v>55367.76750999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>64340.715</v>
+        <v>60998.16498</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>84687.47155000002</v>
+        <v>75585.16430999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>72921.73070999999</v>
+        <v>66018.65473000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>89288.64336</v>
+        <v>79030.42318000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>97514.45648000001</v>
+        <v>98874.75081999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>130003.16862</v>
+        <v>118451.14226</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>237624.33364</v>
+        <v>220330.28386</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>326920.63006</v>
+        <v>307404.11566</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>412422.01064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>380934.62931</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>397151.671</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>7771.11694</v>
+        <v>7770.916939999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>15288.75028</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>15492.61774</v>
+        <v>15490.23062</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>3065.07506</v>
+        <v>2820.68866</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>6047.20048</v>
+        <v>6001.33861</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2764.89419</v>
+        <v>2715.27796</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>7682.302749999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3441.4142</v>
+        <v>3493.17884</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>11417.10528</v>
+        <v>11054.32794</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>11368.04884</v>
+        <v>11349.83757</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5620.80215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4788.34344</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>13907.128</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>6348.46785</v>
+        <v>5186.1304</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>11065.6764</v>
+        <v>8866.902789999998</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>10086.75267</v>
+        <v>9499.862150000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8396.76748</v>
+        <v>8375.71305</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>15442.26128</v>
+        <v>13308.48945</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>13398.87822</v>
+        <v>11637.39915</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>18567.55805</v>
+        <v>13661.05192</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>20851.50495</v>
+        <v>18683.43688</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>22107.81062</v>
+        <v>20303.28829</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>21893.44788</v>
+        <v>21490.99132</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>87277.30434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>79309.60782999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>83417.681</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2938.64572</v>
+        <v>2632.54252</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1310.7067</v>
+        <v>1062.37934</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3930.87428</v>
+        <v>3196.75571</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>912.18868</v>
+        <v>659.1917799999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4375.205800000001</v>
+        <v>3745.89292</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2797.89912</v>
+        <v>2438.51047</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4334.38883</v>
+        <v>4187.33311</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>16639.83265</v>
+        <v>14901.98601</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>16347.78036</v>
+        <v>16174.77659</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>25225.19259</v>
+        <v>25224.95761</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>54307.09999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>54254.77572999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>123087.457</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>439067.46518</v>
+        <v>409865.4007500001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>585370.6513799999</v>
+        <v>550589.44802</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1615763.88743</v>
+        <v>1577498.82645</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>820673.4799000002</v>
+        <v>720710.6050499999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1608563.60704</v>
+        <v>1514014.41368</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1499931.36682</v>
+        <v>1406838.32169</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2032495.56425</v>
+        <v>2296198.35417</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2092176.54721</v>
+        <v>1957416.77378</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3262236.189439999</v>
+        <v>3088597.12615</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6518611.413810001</v>
+        <v>5998425.889030001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5519427.507790001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5242743.93829</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11161068.556</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>25028.64427</v>
+        <v>21436.97802</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>11627.7835</v>
+        <v>7023.36078</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>8503.949420000001</v>
+        <v>8404.296129999999</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>7632.00859</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>10982.95061</v>
+        <v>7662.101860000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>21406.81146</v>
+        <v>21107.56416</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>26226.08598</v>
+        <v>24760.33919000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>29880.82249</v>
+        <v>29525.43988</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>24852.30878</v>
+        <v>24762.88556</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>30829.45061</v>
+        <v>28665.36319</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>46782.14165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>46770.09707</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>22855.994</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2093,7 +2144,7 @@
         <v>1759.14711</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>254.71663</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>1913.83334</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>75473.96639</v>
+        <v>60127.47363</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>79103.91136000001</v>
+        <v>70680.9149</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>96740.33930999998</v>
+        <v>80819.67151999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>101725.7166</v>
+        <v>92520.78805</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>125516.92597</v>
+        <v>108230.12106</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>182847.85149</v>
+        <v>163824.09076</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>220709.48355</v>
+        <v>217778.61182</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>335026.02028</v>
+        <v>318710.39827</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>531852.87385</v>
+        <v>509214.74012</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>579659.99125</v>
+        <v>560787.9523</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>546534.92049</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>526230.9370400001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1061097.586</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>476499.57942</v>
+        <v>441571.59228</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>568701.38347</v>
+        <v>525262.11002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1829501.74598</v>
+        <v>1767737.27924</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>784925.40753</v>
+        <v>719088.52639</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1559605.35189</v>
+        <v>1420356.841</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1531348.84494</v>
+        <v>1414538.64029</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1969014.2664</v>
+        <v>2151854.10079</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2047007.22081</v>
+        <v>1817120.98925</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3266663.39937</v>
+        <v>2966221.50372</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6462815.094029999</v>
+        <v>6013165.40504</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5568364.39825</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5282163.512879999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>10134875.3</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>9494.592490000001</v>
+        <v>9116.22162</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4893.59223</v>
+        <v>4839.6053</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>13762.99633</v>
+        <v>13566.97429</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>13110.4881</v>
+        <v>12497.26773</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>12115.33002</v>
+        <v>9633.664620000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12183.69241</v>
+        <v>11929.98581</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12598.39701</v>
+        <v>14423.49433</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>21039.03244</v>
+        <v>17289.55072</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>39427.98583999999</v>
+        <v>38270.52871</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>27683.439</v>
+        <v>26062.22236</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>33166.43556</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>30838.64129</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>52074.449</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>28210.11936</v>
+        <v>24620.48444</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>43670.51764</v>
+        <v>42711.54557</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>50646.04223</v>
+        <v>49717.28978</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>60113.73545</v>
+        <v>57475.53453</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>85668.74039000001</v>
+        <v>83599.5943</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>79457.19650000001</v>
+        <v>76257.36210000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>134816.28233</v>
+        <v>133505.28243</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>138717.79993</v>
+        <v>134328.34428</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>196241.13198</v>
+        <v>152356.86848</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>244290.88371</v>
+        <v>235823.14713</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>332275.3835300001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>304319.48242</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>274375.873</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.00323</v>
@@ -2285,112 +2361,127 @@
         <v>5785.91569</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2146.31966</v>
+        <v>2143.72826</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1342.50867</v>
+        <v>465.26286</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>7047.9672</v>
+        <v>3118.91707</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>12222.63825</v>
+        <v>9447.95285</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4015.60007</v>
+        <v>3730.41732</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>41358.33679</v>
+        <v>41125.05399</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>7225.657480000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>11178.45205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>11168.61461</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2976.159</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>406617.3817600001</v>
+        <v>381239.1409699999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>491701.0458499999</v>
+        <v>455684.5168400001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1700948.28438</v>
+        <v>1641834.30028</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>649379.33076</v>
+        <v>587657.0046300001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1340631.31529</v>
+        <v>1231794.26073</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1303777.68714</v>
+        <v>1215094.25415</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1659756.84183</v>
+        <v>1867891.99181</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1733705.15631</v>
+        <v>1532603.6206</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2735565.56209</v>
+        <v>2516461.72206</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5991761.550340001</v>
+        <v>5559333.90415</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4970166.07462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4716141.070520001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>9592199.869000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>8789.441550000001</v>
+        <v>4812.42265</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>8198.89021</v>
+        <v>3990.272200000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>7661.794190000001</v>
+        <v>7661.1562</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>5917.553640000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>15694.00554</v>
+        <v>10867.17464</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>22128.74098</v>
+        <v>20921.44827</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>29530.68822</v>
+        <v>28414.88795</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>28353.32723</v>
+        <v>28175.16271</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>27759.25315</v>
+        <v>27635.8318</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>48655.5453</v>
+        <v>44792.47698000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>30654.59088</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>30653.35701</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>24932.496</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>76.76885</v>
@@ -2417,601 +2508,679 @@
         <v>32.10508</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>6.713640000000001</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>675.3458499999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>23311.27218</v>
+        <v>21706.55052</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>19663.95979</v>
+        <v>17462.79236</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>50696.11166</v>
+        <v>49171.0415</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>54257.97992000001</v>
+        <v>53397.4376</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>104153.45198</v>
+        <v>83996.88385</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>106494.96803</v>
+        <v>86958.08021</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>120089.41876</v>
+        <v>98170.49142000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>121144.19975</v>
+        <v>100961.78854</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>226304.41588</v>
+        <v>190371.49868</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>143198.0182</v>
+        <v>139927.99694</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>190248.11576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>189042.34703</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>188316.454</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>277028.55729</v>
+        <v>254344.23875</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>269491.01819</v>
+        <v>249197.55961</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>747721.2454299998</v>
+        <v>579032.24349</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>490378.35004</v>
+        <v>407008.98335</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>865059.9513</v>
+        <v>821127.8093</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>687628.13862</v>
+        <v>635758.74254</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1127393.66776</v>
+        <v>1207088.11739</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1466019.1067</v>
+        <v>1347232.86519</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2111793.8223</v>
+        <v>1971878.3525</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2911961.44966</v>
+        <v>2730605.60468</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2192926.35524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2073961.82986</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3490408.596</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>226024.74948</v>
+        <v>207633.15098</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>225310.14758</v>
+        <v>207089.90832</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>617337.40854</v>
+        <v>450911.91619</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>412952.34747</v>
+        <v>330790.9465</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>748928.77197</v>
+        <v>705842.7721600001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>568902.36576</v>
+        <v>523663.83079</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>996082.38504</v>
+        <v>953007.7480500001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1124914.62231</v>
+        <v>1015590.22061</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1729019.22654</v>
+        <v>1593415.4548</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2435022.16958</v>
+        <v>2291369.68082</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1796750.31003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1695295.01138</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3074408.504</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>51003.80781000001</v>
+        <v>46711.08777000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>44180.87061</v>
+        <v>42107.65129</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>130383.83689</v>
+        <v>128120.3273</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>77426.00257000001</v>
+        <v>76218.03684999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>116131.17933</v>
+        <v>115285.03714</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>118725.77286</v>
+        <v>112094.91175</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>131311.28272</v>
+        <v>254080.36934</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>341104.48439</v>
+        <v>331642.64458</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>382774.59576</v>
+        <v>378462.8977</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>476939.2800800001</v>
+        <v>439235.92386</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>396176.04521</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>378666.81848</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>416000.092</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>602772.45367</v>
+        <v>566516.6311600001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>950145.58808</v>
+        <v>920278.44701</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1376538.69589</v>
+        <v>1485411.79996</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1492445.81229</v>
+        <v>1471881.40881</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1680946.43731</v>
+        <v>1569428.94382</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2073409.31131</v>
+        <v>1957421.78639</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2015276.39984</v>
+        <v>2192721.43938</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2889457.2397</v>
+        <v>2808834.76346</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4382920.87661</v>
+        <v>4362355.30671</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4749901.48542</v>
+        <v>4417496.212640001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5073388.500309999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4656821.41242</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9375292.187999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>68479.3444</v>
+        <v>63403.4491</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>60180.91533</v>
+        <v>54200.0509</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>110073.73532</v>
+        <v>106034.457</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>122977.29076</v>
+        <v>113051.30842</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>116010.31305</v>
+        <v>99828.54151000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>231438.41072</v>
+        <v>193960.41778</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>210362.9805</v>
+        <v>186173.48885</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>400951.83792</v>
+        <v>197155.25104</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>362199.81346</v>
+        <v>300310.76605</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>337787.29266</v>
+        <v>322385.4429199999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>318498.86219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>292320.42903</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>378028.261</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3241.445810000001</v>
+        <v>2367.0639</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2902.41116</v>
+        <v>2901.40522</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>5865.5503</v>
+        <v>5849.59663</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3329.20099</v>
+        <v>3027.34982</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5618.33376</v>
+        <v>5630.8458</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7790.59587</v>
+        <v>7764.30079</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>8556.11204</v>
+        <v>8165.42589</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>8605.522660000001</v>
+        <v>8549.34489</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>19756.01822</v>
+        <v>19695.68821</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>9704.89932</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>13835.25621</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>13251.75377</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11463.16</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>65237.89859</v>
+        <v>61036.3852</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>57278.50416999999</v>
+        <v>51298.64567999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>104208.18502</v>
+        <v>100184.86037</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>119648.08977</v>
+        <v>110023.9586</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>110391.97929</v>
+        <v>94197.69571000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>223647.81485</v>
+        <v>186196.11699</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>201806.86846</v>
+        <v>178008.06296</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>392346.31526</v>
+        <v>188605.90615</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>342443.7952400001</v>
+        <v>280615.07784</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>328082.39334</v>
+        <v>312680.5436</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>304663.60598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>279068.67526</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>366565.101</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>167683.01862</v>
+        <v>155638.81754</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>124757.22146</v>
+        <v>64083.37862</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>247367.83464</v>
+        <v>228747.8858</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>116608.42425</v>
+        <v>103618.8647</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>101747.11787</v>
+        <v>83799.70931999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>263279.99985</v>
+        <v>187070.53554</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>170619.05645</v>
+        <v>150504.05762</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>519965.97459</v>
+        <v>250627.59636</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>269834.5805</v>
+        <v>231665.26236</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>421345.95634</v>
+        <v>353457.54522</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>287399.0338099999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>258245.36233</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>343334.036</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>100396.83958</v>
+        <v>97025.79401000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>26613.42137</v>
+        <v>20407.72446</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>21591.26682</v>
+        <v>17059.00191</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>23100.18539</v>
+        <v>20674.26628</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>23171.08334</v>
+        <v>17840.37017</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>27196.36424</v>
+        <v>17594.98791</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>49086.91076</v>
+        <v>51619.10572000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>37163.70686</v>
+        <v>25203.76764</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>73690.57433</v>
+        <v>72306.42231000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>126810.71905</v>
+        <v>117879.40638</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>63394.58333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>62934.99242</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>138537.85</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9693.875910000001</v>
+        <v>8558.717289999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>9400.495419999999</v>
+        <v>9319.746519999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>16835.8056</v>
+        <v>16594.70522</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>30576.00966</v>
+        <v>30229.78833</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>18388.83859</v>
+        <v>17770.41555</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>18744.87667</v>
+        <v>18457.31649</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>27737.03283</v>
+        <v>20598.62049</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>207451.49288</v>
+        <v>24387.45897</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>37701.30481</v>
+        <v>37219.93225</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>29415.11125</v>
+        <v>29238.22625</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>56870.4587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>56384.71754</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>22141.561</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>57592.30313</v>
+        <v>50054.30624000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>88743.30467</v>
+        <v>34355.90764</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>208940.76222</v>
+        <v>195094.17867</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>62932.2292</v>
+        <v>52714.81009000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>60187.19594000001</v>
+        <v>48188.9236</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>217338.75894</v>
+        <v>151018.23114</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>93795.11285999999</v>
+        <v>78286.33141</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>275350.77485</v>
+        <v>201036.36975</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>158442.70136</v>
+        <v>122138.9078</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>265120.12604</v>
+        <v>206339.91259</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>167133.99178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>138925.65237</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>182654.625</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>503568.77945</v>
+        <v>474281.2627200001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>885569.2819500001</v>
+        <v>910395.1192899999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1239244.59657</v>
+        <v>1362698.37116</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1498814.6788</v>
+        <v>1481313.85253</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1695209.63249</v>
+        <v>1585457.77601</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2041567.72218</v>
+        <v>1964311.66863</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2055020.32389</v>
+        <v>2228390.87061</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2770443.10303</v>
+        <v>2755362.41814</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4475286.10957</v>
+        <v>4431000.810400001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4666342.82174</v>
+        <v>4386424.11034</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5104488.328690001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4690896.47912</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>9409986.413000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>95592.45204999999</v>
+        <v>86280.24089</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>170068.66022</v>
+        <v>161809.50931</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>218423.76937</v>
+        <v>211108.92108</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>202778.11117</v>
+        <v>193616.78931</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>216299.72656</v>
+        <v>187115.42603</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>319424.0394</v>
+        <v>296781.3869</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>313078.26328</v>
+        <v>335468.7304400001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>372532.87724</v>
+        <v>351899.44521</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>507126.6172399999</v>
+        <v>486109.2909499999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>596948.14168</v>
+        <v>542246.29122</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>561216.35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>486504.5194700001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1037791.941</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>407976.3274</v>
+        <v>388001.02183</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>715500.62173</v>
+        <v>748585.6099800001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1020820.8272</v>
+        <v>1151589.45008</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1296036.56763</v>
+        <v>1287697.06322</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1478909.90593</v>
+        <v>1398342.34998</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1722143.68278</v>
+        <v>1667530.28173</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1741942.06061</v>
+        <v>1892922.14017</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2397910.225790001</v>
+        <v>2403462.97293</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3968159.49233</v>
+        <v>3944891.51945</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4069394.680060001</v>
+        <v>3844177.81912</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4543271.97869</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4204391.95965</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8372194.472</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>128</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>